--- a/Proyectos/Viaticos/07. Control de Cambios/Viaticos-SolicitudCambio.xlsx
+++ b/Proyectos/Viaticos/07. Control de Cambios/Viaticos-SolicitudCambio.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Datos Generales</t>
   </si>
@@ -142,7 +142,7 @@
     <t>Estado del Cambio</t>
   </si>
   <si>
-    <t>Abierto</t>
+    <t>Cerrado</t>
   </si>
   <si>
     <t>Identificación del Cambio</t>
@@ -232,10 +232,16 @@
     <t>Revisor:</t>
   </si>
   <si>
+    <t>Jovanny Zepeda</t>
+  </si>
+  <si>
     <t>Fecha de Resolución:</t>
   </si>
   <si>
     <t>Resultado:</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
   </si>
   <si>
     <t>Estado General del Cambio:</t>
@@ -728,15 +734,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3919680</xdr:colOff>
+      <xdr:colOff>3946680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>981720</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:colOff>1008360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>852840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -749,8 +755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7590600" y="38520"/>
-          <a:ext cx="2486160" cy="823680"/>
+          <a:off x="7617600" y="29520"/>
+          <a:ext cx="2485800" cy="823320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -806,8 +812,8 @@
   </sheetPr>
   <dimension ref="1:48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4061,7 +4067,9 @@
       <c r="D16" s="14" t="n">
         <v>42466</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="19" t="n">
+        <v>42469</v>
+      </c>
       <c r="F16" s="20" t="n">
         <v>5</v>
       </c>
@@ -4077,7 +4085,9 @@
       <c r="D17" s="14" t="n">
         <v>42466</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="19" t="n">
+        <v>42469</v>
+      </c>
       <c r="F17" s="20" t="n">
         <v>5</v>
       </c>
@@ -4267,14 +4277,18 @@
       <c r="B40" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="19" t="n">
+        <v>42469</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
       <c r="B41" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="19" t="n">
+        <v>42469</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
@@ -4310,19 +4324,25 @@
       <c r="B46" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C47" s="19" t="n">
+        <v>42469</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4378,39 +4398,39 @@
         <v>28</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
